--- a/InsideEV_2015.xlsx
+++ b/InsideEV_2015.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/Dropbox/Data/EV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dane/src/evsales/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1016,96 +1016,6 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N13" s="2">
-        <f t="shared" ref="N13:N27" si="2">SUM(B13:M13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N20" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N22" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N23" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N24" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N25" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N26" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N27" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
